--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H2">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10160923502586</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N2">
-        <v>1.10160923502586</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P2">
-        <v>0.7378047186693026</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q2">
-        <v>0.3795091103392583</v>
+        <v>1.138404323989778</v>
       </c>
       <c r="R2">
-        <v>0.3795091103392583</v>
+        <v>10.245638915908</v>
       </c>
       <c r="S2">
-        <v>0.010248725183548</v>
+        <v>0.01636805379617484</v>
       </c>
       <c r="T2">
-        <v>0.010248725183548</v>
+        <v>0.01636805379617484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H3">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.391481290354232</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N3">
-        <v>0.391481290354232</v>
+        <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P3">
-        <v>0.2621952813306974</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q3">
-        <v>0.1348669850369508</v>
+        <v>0.3882838750471111</v>
       </c>
       <c r="R3">
-        <v>0.1348669850369508</v>
+        <v>3.494554875424</v>
       </c>
       <c r="S3">
-        <v>0.00364211195020265</v>
+        <v>0.005582771622549997</v>
       </c>
       <c r="T3">
-        <v>0.00364211195020265</v>
+        <v>0.005582771622549996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.47763752060708</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H4">
-        <v>5.47763752060708</v>
+        <v>2.062132</v>
       </c>
       <c r="I4">
-        <v>0.2208650872857467</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J4">
-        <v>0.2208650872857467</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10160923502586</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N4">
-        <v>1.10160923502586</v>
+        <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P4">
-        <v>0.7378047186693026</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q4">
-        <v>6.034216078824914</v>
+        <v>0.3240108866195556</v>
       </c>
       <c r="R4">
-        <v>6.034216078824914</v>
+        <v>2.916097979576</v>
       </c>
       <c r="S4">
-        <v>0.1629553035887313</v>
+        <v>0.00465865028002372</v>
       </c>
       <c r="T4">
-        <v>0.1629553035887313</v>
+        <v>0.004658650280023721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H5">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.391481290354232</v>
+        <v>1.656156333333334</v>
       </c>
       <c r="N5">
-        <v>0.391481290354232</v>
+        <v>4.968469000000001</v>
       </c>
       <c r="O5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="P5">
-        <v>0.2621952813306974</v>
+        <v>0.6151212440816572</v>
       </c>
       <c r="Q5">
-        <v>2.144392604660016</v>
+        <v>9.794483160936224</v>
       </c>
       <c r="R5">
-        <v>2.144392604660016</v>
+        <v>88.15034844842602</v>
       </c>
       <c r="S5">
-        <v>0.05790978369701539</v>
+        <v>0.1408257364326141</v>
       </c>
       <c r="T5">
-        <v>0.05790978369701539</v>
+        <v>0.1408257364326141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.978688358287</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H6">
-        <v>18.978688358287</v>
+        <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J6">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.10160923502586</v>
+        <v>0.5648773333333333</v>
       </c>
       <c r="N6">
-        <v>1.10160923502586</v>
+        <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="P6">
-        <v>0.7378047186693026</v>
+        <v>0.2098038941373262</v>
       </c>
       <c r="Q6">
-        <v>20.90709836416674</v>
+        <v>3.340675887880889</v>
       </c>
       <c r="R6">
-        <v>20.90709836416674</v>
+        <v>30.066082990928</v>
       </c>
       <c r="S6">
-        <v>0.5646006898970234</v>
+        <v>0.04803246218951425</v>
       </c>
       <c r="T6">
-        <v>0.5646006898970234</v>
+        <v>0.04803246218951425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.978688358287</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H7">
-        <v>18.978688358287</v>
+        <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J7">
-        <v>0.7652440755805027</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.391481290354232</v>
+        <v>0.4713726666666667</v>
       </c>
       <c r="N7">
-        <v>0.391481290354232</v>
+        <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810164</v>
       </c>
       <c r="P7">
-        <v>0.2621952813306974</v>
+        <v>0.1750748617810165</v>
       </c>
       <c r="Q7">
-        <v>7.429801407733035</v>
+        <v>2.787690722952445</v>
       </c>
       <c r="R7">
-        <v>7.429801407733035</v>
+        <v>25.089216506572</v>
       </c>
       <c r="S7">
-        <v>0.2006433856834794</v>
+        <v>0.0400816043639631</v>
       </c>
       <c r="T7">
-        <v>0.2006433856834794</v>
+        <v>0.04008160436396311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>19.230689</v>
+      </c>
+      <c r="H8">
+        <v>57.692067</v>
+      </c>
+      <c r="I8">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="J8">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.656156333333334</v>
+      </c>
+      <c r="N8">
+        <v>4.968469000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="P8">
+        <v>0.6151212440816572</v>
+      </c>
+      <c r="Q8">
+        <v>31.84902738171368</v>
+      </c>
+      <c r="R8">
+        <v>286.6412464354231</v>
+      </c>
+      <c r="S8">
+        <v>0.4579274538528684</v>
+      </c>
+      <c r="T8">
+        <v>0.4579274538528684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.230689</v>
+      </c>
+      <c r="H9">
+        <v>57.692067</v>
+      </c>
+      <c r="I9">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="J9">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5648773333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.694632</v>
+      </c>
+      <c r="O9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="P9">
+        <v>0.2098038941373262</v>
+      </c>
+      <c r="Q9">
+        <v>10.86298032048267</v>
+      </c>
+      <c r="R9">
+        <v>97.76682288434399</v>
+      </c>
+      <c r="S9">
+        <v>0.156188660325262</v>
+      </c>
+      <c r="T9">
+        <v>0.156188660325262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>19.230689</v>
+      </c>
+      <c r="H10">
+        <v>57.692067</v>
+      </c>
+      <c r="I10">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="J10">
+        <v>0.7444507213151601</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4713726666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.414118</v>
+      </c>
+      <c r="O10">
+        <v>0.1750748617810164</v>
+      </c>
+      <c r="P10">
+        <v>0.1750748617810165</v>
+      </c>
+      <c r="Q10">
+        <v>9.064821155767335</v>
+      </c>
+      <c r="R10">
+        <v>81.58339040190602</v>
+      </c>
+      <c r="S10">
+        <v>0.1303346071370297</v>
+      </c>
+      <c r="T10">
+        <v>0.1303346071370297</v>
       </c>
     </row>
   </sheetData>
